--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
@@ -777,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
@@ -816,10 +816,10 @@
         <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
@@ -828,7 +828,7 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
@@ -855,7 +855,7 @@
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -1129,10 +1129,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1141,10 +1141,10 @@
         <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1228,7 +1228,7 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="I5" t="n">
         <v>1.03</v>
       </c>
       <c r="J5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.21</v>
@@ -1337,20 +1337,20 @@
         <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="X5" t="n">
         <v>600</v>
       </c>
       <c r="Y5" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
         <v>600</v>
       </c>
       <c r="AB5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AC5" t="n">
         <v>40</v>
@@ -1359,10 +1359,10 @@
         <v>35</v>
       </c>
       <c r="AE5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG5" t="n">
         <v>600</v>
@@ -1371,7 +1371,7 @@
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>16.5</v>
@@ -1386,10 +1386,10 @@
         <v>37</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AP5" t="n">
         <v>100</v>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
@@ -2019,10 +2019,10 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.67</v>
@@ -3097,16 +3097,16 @@
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L15" t="n">
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
@@ -3115,10 +3115,10 @@
         <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S15" t="n">
         <v>1.36</v>
@@ -3133,7 +3133,7 @@
         <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X15" t="n">
         <v>7</v>
@@ -3145,16 +3145,16 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE15" t="n">
         <v>19</v>
@@ -3166,10 +3166,10 @@
         <v>351</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="n">
         <v>21</v>
@@ -3208,7 +3208,7 @@
         <v>9</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW15" t="n">
         <v>51</v>
@@ -3223,7 +3223,7 @@
         <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB15" t="n">
         <v>151</v>
@@ -3475,10 +3475,10 @@
         <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -4163,22 +4163,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K21" t="n">
         <v>2.05</v>
       </c>
       <c r="L21" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
@@ -4196,7 +4196,7 @@
         <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
         <v>1.5</v>
@@ -4229,7 +4229,7 @@
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
@@ -4241,13 +4241,13 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH21" t="n">
         <v>10</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="n">
         <v>15</v>
@@ -4262,7 +4262,7 @@
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
         <v>11</v>
@@ -4292,7 +4292,7 @@
         <v>126</v>
       </c>
       <c r="AX21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY21" t="n">
         <v>23</v>
@@ -4366,13 +4366,13 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="P22" t="n">
-        <v>5.35</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
         <v>1.45</v>
@@ -4381,10 +4381,10 @@
         <v>2.37</v>
       </c>
       <c r="S22" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="T22" t="n">
-        <v>3.84</v>
+        <v>3.93</v>
       </c>
       <c r="U22" t="n">
         <v>1.4</v>
@@ -4546,13 +4546,13 @@
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="P23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q23" t="n">
         <v>1.38</v>
@@ -4561,10 +4561,10 @@
         <v>2.62</v>
       </c>
       <c r="S23" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="T23" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="U23" t="n">
         <v>1.57</v>
@@ -4703,22 +4703,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.25</v>
+        <v>3.85</v>
       </c>
       <c r="H24" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="I24" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J24" t="n">
-        <v>4.25</v>
+        <v>3.95</v>
       </c>
       <c r="K24" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="L24" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
@@ -4730,52 +4730,52 @@
         <v>1.14</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>5.21</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R24" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="S24" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="T24" t="n">
-        <v>3.9</v>
+        <v>3.93</v>
       </c>
       <c r="U24" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V24" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="W24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC24" t="n">
         <v>19</v>
       </c>
-      <c r="X24" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AD24" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF24" t="n">
         <v>40</v>
@@ -4787,43 +4787,43 @@
         <v>11</v>
       </c>
       <c r="AI24" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ24" t="n">
         <v>8.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AM24" t="n">
         <v>18</v>
       </c>
       <c r="AN24" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AO24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP24" t="n">
         <v>21</v>
       </c>
-      <c r="AP24" t="n">
-        <v>22</v>
-      </c>
       <c r="AQ24" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AR24" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS24" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AU24" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV24" t="n">
         <v>40</v>
@@ -4832,19 +4832,19 @@
         <v>500</v>
       </c>
       <c r="AX24" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AY24" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AZ24" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BA24" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BB24" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BC24" t="n">
         <v>120</v>
@@ -4886,19 +4886,19 @@
         <v>3.35</v>
       </c>
       <c r="H25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="J25" t="n">
         <v>3.6</v>
       </c>
       <c r="K25" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L25" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
@@ -4907,10 +4907,10 @@
         <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q25" t="n">
         <v>1.47</v>
@@ -4919,25 +4919,25 @@
         <v>2.32</v>
       </c>
       <c r="S25" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="T25" t="n">
-        <v>3.65</v>
+        <v>3.66</v>
       </c>
       <c r="U25" t="n">
         <v>1.45</v>
       </c>
       <c r="V25" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="W25" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X25" t="n">
         <v>23</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
         <v>50</v>
@@ -4946,19 +4946,19 @@
         <v>25</v>
       </c>
       <c r="AB25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC25" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD25" t="n">
         <v>8</v>
       </c>
       <c r="AE25" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF25" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG25" t="n">
         <v>200</v>
@@ -4973,19 +4973,19 @@
         <v>8.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM25" t="n">
         <v>18.5</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
         <v>18.5</v>
@@ -5000,7 +5000,7 @@
         <v>175</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AU25" t="n">
         <v>6.3</v>
@@ -5015,13 +5015,13 @@
         <v>4.15</v>
       </c>
       <c r="AY25" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BA25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB25" t="n">
         <v>45</v>
@@ -5081,16 +5081,16 @@
         <v>2.67</v>
       </c>
       <c r="M26" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="O26" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q26" t="n">
         <v>1.5</v>
@@ -5099,10 +5099,10 @@
         <v>2.27</v>
       </c>
       <c r="S26" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="T26" t="n">
-        <v>3.7</v>
+        <v>3.66</v>
       </c>
       <c r="U26" t="n">
         <v>1.42</v>
@@ -5264,7 +5264,7 @@
         <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>12.9</v>
+        <v>15</v>
       </c>
       <c r="O27" t="n">
         <v>1.19</v>
@@ -5777,28 +5777,28 @@
         </is>
       </c>
       <c r="G30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1.95</v>
-      </c>
       <c r="L30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O30" t="n">
         <v>1.44</v>
@@ -5819,28 +5819,28 @@
         <v>2.38</v>
       </c>
       <c r="U30" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X30" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA30" t="n">
         <v>19</v>
       </c>
       <c r="AB30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC30" t="n">
         <v>7</v>
@@ -5849,25 +5849,25 @@
         <v>6.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF30" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG30" t="n">
         <v>1250</v>
       </c>
       <c r="AH30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ30" t="n">
         <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL30" t="n">
         <v>41</v>
@@ -5876,10 +5876,10 @@
         <v>51</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP30" t="n">
         <v>26</v>
@@ -5897,28 +5897,28 @@
         <v>2.38</v>
       </c>
       <c r="AU30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV30" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW30" t="n">
         <v>81</v>
       </c>
       <c r="AX30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ30" t="n">
         <v>41</v>
       </c>
       <c r="BA30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB30" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC30" t="n">
         <v>351</v>
@@ -5959,22 +5959,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.85</v>
+        <v>3.35</v>
       </c>
       <c r="H31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.65</v>
       </c>
-      <c r="I31" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K31" t="n">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="L31" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -5983,125 +5983,125 @@
         <v>12</v>
       </c>
       <c r="O31" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="P31" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R31" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="S31" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="T31" t="n">
-        <v>3.34</v>
+        <v>3.65</v>
       </c>
       <c r="U31" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="V31" t="n">
-        <v>2.54</v>
+        <v>2.7</v>
       </c>
       <c r="W31" t="n">
+        <v>13</v>
+      </c>
+      <c r="X31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y31" t="n">
         <v>10.25</v>
       </c>
-      <c r="X31" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>9</v>
-      </c>
       <c r="Z31" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AA31" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AB31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AD31" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="AE31" t="n">
         <v>10.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG31" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AH31" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AK31" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="AM31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO31" t="n">
         <v>17</v>
       </c>
-      <c r="AN31" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AP31" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR31" t="n">
         <v>80</v>
       </c>
       <c r="AS31" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="AU31" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="AY31" t="n">
-        <v>10.25</v>
+        <v>8.5</v>
       </c>
       <c r="AZ31" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="BA31" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="BC31" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="BD31" t="inlineStr"/>
     </row>
@@ -6669,34 +6669,34 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H35" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I35" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J35" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="K35" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L35" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O35" t="n">
         <v>1.22</v>
       </c>
       <c r="P35" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q35" t="n">
         <v>1.65</v>
@@ -6705,19 +6705,19 @@
         <v>1.98</v>
       </c>
       <c r="S35" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="T35" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="U35" t="n">
         <v>1.7</v>
       </c>
       <c r="V35" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W35" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X35" t="n">
         <v>8.25</v>
@@ -6735,22 +6735,22 @@
         <v>23</v>
       </c>
       <c r="AC35" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD35" t="n">
         <v>7.6</v>
       </c>
       <c r="AE35" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG35" t="n">
         <v>450</v>
       </c>
       <c r="AH35" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI35" t="n">
         <v>28</v>
@@ -6762,34 +6762,34 @@
         <v>80</v>
       </c>
       <c r="AL35" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN35" t="n">
         <v>3.55</v>
       </c>
       <c r="AO35" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AP35" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR35" t="n">
         <v>50</v>
       </c>
       <c r="AS35" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT35" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU35" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV35" t="n">
         <v>60</v>
@@ -6799,19 +6799,19 @@
         <v>6.4</v>
       </c>
       <c r="AY35" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ35" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA35" t="n">
         <v>150</v>
       </c>
       <c r="BB35" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC35" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD35" t="inlineStr"/>
     </row>
@@ -7909,22 +7909,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H42" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="J42" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="K42" t="n">
         <v>2.12</v>
       </c>
       <c r="L42" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="M42" t="n">
         <v>1.08</v>
@@ -7951,7 +7951,7 @@
         <v>2.72</v>
       </c>
       <c r="U42" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V42" t="n">
         <v>1.8</v>
@@ -7963,43 +7963,43 @@
         <v>21</v>
       </c>
       <c r="Y42" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA42" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB42" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC42" t="n">
         <v>6.6</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE42" t="n">
         <v>16</v>
       </c>
       <c r="AF42" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG42" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH42" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AI42" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AJ42" t="n">
         <v>8.5</v>
       </c>
       <c r="AK42" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL42" t="n">
         <v>16.5</v>
@@ -8008,13 +8008,13 @@
         <v>32</v>
       </c>
       <c r="AN42" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO42" t="n">
         <v>22</v>
       </c>
       <c r="AP42" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ42" t="n">
         <v>120</v>
@@ -8029,17 +8029,17 @@
         <v>2.72</v>
       </c>
       <c r="AU42" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV42" t="n">
         <v>65</v>
       </c>
       <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AY42" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AZ42" t="n">
         <v>18.5</v>
@@ -8087,22 +8087,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H43" t="n">
         <v>2.62</v>
       </c>
       <c r="I43" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J43" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K43" t="n">
         <v>1.93</v>
       </c>
       <c r="L43" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>1.1</v>
@@ -8114,7 +8114,7 @@
         <v>1.38</v>
       </c>
       <c r="P43" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q43" t="n">
         <v>2.12</v>
@@ -8126,7 +8126,7 @@
         <v>1.44</v>
       </c>
       <c r="T43" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="U43" t="n">
         <v>1.75</v>
@@ -8135,16 +8135,16 @@
         <v>1.98</v>
       </c>
       <c r="W43" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X43" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y43" t="n">
         <v>8.75</v>
       </c>
       <c r="Z43" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA43" t="n">
         <v>20</v>
@@ -8159,25 +8159,25 @@
         <v>5.2</v>
       </c>
       <c r="AE43" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF43" t="n">
         <v>60</v>
       </c>
       <c r="AG43" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH43" t="n">
         <v>9.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ43" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK43" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL43" t="n">
         <v>35</v>
@@ -8195,7 +8195,7 @@
         <v>18</v>
       </c>
       <c r="AQ43" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR43" t="n">
         <v>75</v>
@@ -8204,7 +8204,7 @@
         <v>200</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU43" t="n">
         <v>6.1</v>
@@ -8214,10 +8214,10 @@
       </c>
       <c r="AW43" t="inlineStr"/>
       <c r="AX43" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AY43" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ43" t="n">
         <v>23</v>
@@ -8265,55 +8265,55 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H44" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L44" t="n">
         <v>7.2</v>
       </c>
-      <c r="J44" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L44" t="n">
-        <v>7</v>
-      </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R44" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S44" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T44" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="U44" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="V44" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W44" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="X44" t="n">
         <v>6</v>
@@ -8322,58 +8322,58 @@
         <v>8.25</v>
       </c>
       <c r="Z44" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AA44" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC44" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AE44" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF44" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG44" t="n">
         <v>101</v>
       </c>
       <c r="AH44" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ44" t="n">
         <v>24</v>
       </c>
       <c r="AK44" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL44" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM44" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN44" t="n">
         <v>3.15</v>
       </c>
       <c r="AO44" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AP44" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ44" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AR44" t="n">
         <v>55</v>
@@ -8382,29 +8382,29 @@
         <v>250</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="AU44" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AV44" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW44" t="inlineStr"/>
       <c r="AX44" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AY44" t="n">
         <v>50</v>
       </c>
       <c r="AZ44" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BA44" t="n">
         <v>400</v>
       </c>
       <c r="BB44" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC44" t="inlineStr"/>
       <c r="BD44" t="inlineStr"/>
@@ -8820,7 +8820,7 @@
         <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="O47" t="n">
         <v>1.19</v>
@@ -9869,22 +9869,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H53" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="I53" t="n">
         <v>3.9</v>
       </c>
       <c r="J53" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K53" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L53" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M53" t="n">
         <v>1.13</v>
@@ -9893,10 +9893,10 @@
         <v>6</v>
       </c>
       <c r="O53" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P53" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q53" t="n">
         <v>3.1</v>
@@ -9911,16 +9911,16 @@
         <v>2.1</v>
       </c>
       <c r="U53" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V53" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W53" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X53" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y53" t="n">
         <v>10</v>
@@ -9950,10 +9950,10 @@
         <v>101</v>
       </c>
       <c r="AH53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ53" t="n">
         <v>17</v>
@@ -9965,13 +9965,13 @@
         <v>41</v>
       </c>
       <c r="AM53" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN53" t="n">
         <v>3.75</v>
       </c>
       <c r="AO53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP53" t="n">
         <v>34</v>
@@ -9989,7 +9989,7 @@
         <v>2.1</v>
       </c>
       <c r="AU53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV53" t="n">
         <v>101</v>
@@ -10005,10 +10005,10 @@
         <v>41</v>
       </c>
       <c r="BA53" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB53" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC53" t="inlineStr"/>
       <c r="BD53" t="inlineStr"/>
@@ -10045,19 +10045,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H54" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J54" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="K54" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="L54" t="n">
         <v>6</v>
@@ -10081,16 +10081,16 @@
         <v>2.7</v>
       </c>
       <c r="S54" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T54" t="n">
         <v>4</v>
       </c>
       <c r="U54" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V54" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W54" t="n">
         <v>11</v>
@@ -10108,13 +10108,13 @@
         <v>11</v>
       </c>
       <c r="AB54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC54" t="n">
         <v>21</v>
       </c>
       <c r="AD54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE54" t="n">
         <v>15</v>
@@ -10123,13 +10123,13 @@
         <v>41</v>
       </c>
       <c r="AG54" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ54" t="n">
         <v>19</v>
@@ -10141,16 +10141,16 @@
         <v>41</v>
       </c>
       <c r="AM54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN54" t="n">
         <v>3.75</v>
       </c>
       <c r="AO54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ54" t="n">
         <v>17</v>
@@ -10174,7 +10174,7 @@
         <v>351</v>
       </c>
       <c r="AX54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY54" t="n">
         <v>29</v>
@@ -10263,13 +10263,13 @@
         <v>2.3</v>
       </c>
       <c r="S55" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T55" t="n">
         <v>3.5</v>
       </c>
       <c r="U55" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V55" t="n">
         <v>2.5</v>
@@ -10409,16 +10409,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H56" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I56" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J56" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="K56" t="n">
         <v>3.1</v>
@@ -10445,22 +10445,22 @@
         <v>4.2</v>
       </c>
       <c r="S56" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="T56" t="n">
         <v>5.5</v>
       </c>
       <c r="U56" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V56" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y56" t="n">
         <v>10</v>
@@ -10481,13 +10481,13 @@
         <v>15</v>
       </c>
       <c r="AE56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG56" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH56" t="n">
         <v>34</v>
@@ -10496,10 +10496,10 @@
         <v>41</v>
       </c>
       <c r="AJ56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK56" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL56" t="n">
         <v>41</v>
@@ -10517,7 +10517,7 @@
         <v>11</v>
       </c>
       <c r="AQ56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR56" t="n">
         <v>23</v>
@@ -10535,13 +10535,13 @@
         <v>34</v>
       </c>
       <c r="AW56" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AX56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY56" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ56" t="n">
         <v>23</v>
@@ -10553,7 +10553,7 @@
         <v>67</v>
       </c>
       <c r="BC56" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD56" t="n">
         <v>151</v>
@@ -10591,13 +10591,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H57" t="n">
         <v>4.33</v>
       </c>
       <c r="I57" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J57" t="n">
         <v>4.5</v>
@@ -10621,22 +10621,22 @@
         <v>5.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R57" t="n">
         <v>2.5</v>
       </c>
       <c r="S57" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T57" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U57" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V57" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W57" t="n">
         <v>17</v>
@@ -10645,10 +10645,10 @@
         <v>26</v>
       </c>
       <c r="Y57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z57" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA57" t="n">
         <v>29</v>
@@ -10681,7 +10681,7 @@
         <v>8.5</v>
       </c>
       <c r="AK57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL57" t="n">
         <v>12</v>
@@ -10693,22 +10693,22 @@
         <v>6.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ57" t="n">
         <v>67</v>
       </c>
       <c r="AR57" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS57" t="n">
         <v>126</v>
       </c>
       <c r="AT57" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU57" t="n">
         <v>7.5</v>
@@ -10803,7 +10803,7 @@
         <v>7</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R58" t="n">
         <v>3.1</v>
@@ -11309,7 +11309,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>3.3</v>
@@ -11354,7 +11354,7 @@
         <v>2.1</v>
       </c>
       <c r="V61" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W61" t="n">
         <v>6</v>
@@ -11532,7 +11532,7 @@
         <v>2.1</v>
       </c>
       <c r="V62" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W62" t="n">
         <v>6.5</v>
@@ -11604,7 +11604,7 @@
         <v>251</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AU62" t="n">
         <v>9</v>
@@ -11665,16 +11665,16 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H63" t="n">
         <v>3.3</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K63" t="n">
         <v>2.05</v>
@@ -11683,10 +11683,10 @@
         <v>3.75</v>
       </c>
       <c r="M63" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O63" t="n">
         <v>1.36</v>
@@ -11707,16 +11707,16 @@
         <v>2.63</v>
       </c>
       <c r="U63" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V63" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="W63" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y63" t="n">
         <v>9.5</v>
@@ -11725,13 +11725,13 @@
         <v>21</v>
       </c>
       <c r="AA63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB63" t="n">
         <v>34</v>
       </c>
       <c r="AC63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD63" t="n">
         <v>6.5</v>
@@ -11743,7 +11743,7 @@
         <v>51</v>
       </c>
       <c r="AG63" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH63" t="n">
         <v>8.5</v>
@@ -11752,7 +11752,7 @@
         <v>15</v>
       </c>
       <c r="AJ63" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK63" t="n">
         <v>34</v>
@@ -11761,7 +11761,7 @@
         <v>26</v>
       </c>
       <c r="AM63" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN63" t="n">
         <v>4.33</v>
@@ -11782,10 +11782,10 @@
         <v>201</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU63" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV63" t="n">
         <v>51</v>
@@ -11795,19 +11795,19 @@
         <v>5</v>
       </c>
       <c r="AY63" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ63" t="n">
         <v>29</v>
       </c>
       <c r="BA63" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB63" t="n">
         <v>81</v>
       </c>
       <c r="BC63" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD63" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
@@ -750,19 +750,19 @@
         <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -771,61 +771,61 @@
         <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
+        <v>11</v>
+      </c>
+      <c r="X2" t="n">
         <v>9.5</v>
       </c>
-      <c r="X2" t="n">
-        <v>9</v>
-      </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
@@ -837,16 +837,16 @@
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
         <v>7</v>
@@ -855,43 +855,43 @@
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV2" t="n">
         <v>41</v>
       </c>
-      <c r="AS2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>51</v>
-      </c>
       <c r="AW2" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AX2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
         <v>160</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1135,40 +1135,40 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
         <v>19</v>
@@ -1177,7 +1177,7 @@
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1189,19 +1189,19 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
         <v>29</v>
@@ -1210,10 +1210,10 @@
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1228,22 +1228,22 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
         <v>126</v>
       </c>
       <c r="AX4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
         <v>29</v>
@@ -1252,7 +1252,7 @@
         <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC4" t="n">
         <v>251</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H5" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="I5" t="n">
         <v>1.03</v>
       </c>
       <c r="J5" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="L5" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1325,38 +1325,38 @@
         <v>4.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.23</v>
+        <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="W5" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="X5" t="n">
         <v>600</v>
       </c>
       <c r="Y5" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
         <v>600</v>
       </c>
       <c r="AB5" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AC5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD5" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE5" t="n">
         <v>50</v>
@@ -1368,62 +1368,62 @@
         <v>600</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="AL5" t="n">
         <v>11.75</v>
       </c>
       <c r="AM5" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AN5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AO5" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AP5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="AY5" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AZ5" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="BA5" t="n">
         <v>5.7</v>
       </c>
       <c r="BB5" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="BC5" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BD5" t="inlineStr"/>
     </row>
@@ -1462,10 +1462,10 @@
         <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1659,13 +1659,13 @@
         <v>7.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
         <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
         <v>3.25</v>
@@ -1765,7 +1765,7 @@
         <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
@@ -1839,22 +1839,22 @@
         <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P8" t="n">
         <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
         <v>1.57</v>
@@ -2019,13 +2019,13 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
         <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P9" t="n">
         <v>2.1</v>
@@ -3085,16 +3085,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K15" t="n">
         <v>2.3</v>
@@ -3103,10 +3103,10 @@
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
@@ -3133,7 +3133,7 @@
         <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
         <v>7</v>
@@ -3151,7 +3151,7 @@
         <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>7.5</v>
@@ -3166,10 +3166,10 @@
         <v>351</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
         <v>21</v>
@@ -3187,7 +3187,7 @@
         <v>3.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
@@ -3208,7 +3208,7 @@
         <v>9</v>
       </c>
       <c r="AV15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="n">
         <v>51</v>
@@ -3223,7 +3223,7 @@
         <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB15" t="n">
         <v>151</v>
@@ -4163,28 +4163,28 @@
         </is>
       </c>
       <c r="G21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K21" t="n">
         <v>2</v>
       </c>
-      <c r="H21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.36</v>
@@ -4214,16 +4214,16 @@
         <v>6.5</v>
       </c>
       <c r="X21" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
         <v>34</v>
@@ -4235,7 +4235,7 @@
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
@@ -4244,13 +4244,13 @@
         <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
         <v>41</v>
@@ -4265,7 +4265,7 @@
         <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP21" t="n">
         <v>23</v>
@@ -4295,19 +4295,19 @@
         <v>5.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
         <v>34</v>
       </c>
       <c r="BA21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB21" t="n">
         <v>101</v>
       </c>
       <c r="BC21" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD21" t="n">
         <v>126</v>
@@ -5959,34 +5959,34 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.35</v>
+        <v>2.92</v>
       </c>
       <c r="H31" t="n">
         <v>3.9</v>
       </c>
       <c r="I31" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="J31" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="L31" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O31" t="n">
         <v>1.1</v>
       </c>
       <c r="P31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Q31" t="n">
         <v>1.53</v>
@@ -6001,107 +6001,109 @@
         <v>3.65</v>
       </c>
       <c r="U31" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V31" t="n">
-        <v>2.7</v>
+        <v>2.81</v>
       </c>
       <c r="W31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB31" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="AC31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH31" t="n">
         <v>10.25</v>
       </c>
-      <c r="Z31" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AI31" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AK31" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AL31" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM31" t="n">
         <v>15</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AO31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP31" t="n">
         <v>17</v>
       </c>
-      <c r="AP31" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ31" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AR31" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AS31" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="AU31" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AV31" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW31" t="inlineStr"/>
+        <v>37</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>450</v>
+      </c>
       <c r="AX31" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AY31" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AZ31" t="n">
         <v>13.5</v>
       </c>
       <c r="BA31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB31" t="n">
         <v>40</v>
       </c>
       <c r="BC31" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BD31" t="inlineStr"/>
     </row>
@@ -8621,7 +8623,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H46" t="n">
         <v>3.35</v>
@@ -8630,31 +8632,31 @@
         <v>2.8</v>
       </c>
       <c r="J46" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="K46" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L46" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M46" t="n">
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P46" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R46" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="S46" t="n">
         <v>1.4</v>
@@ -8663,49 +8665,49 @@
         <v>2.55</v>
       </c>
       <c r="U46" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="V46" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="W46" t="n">
         <v>9.5</v>
       </c>
       <c r="X46" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y46" t="n">
         <v>9</v>
       </c>
       <c r="Z46" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA46" t="n">
         <v>17.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE46" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD46" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>12</v>
-      </c>
       <c r="AF46" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG46" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH46" t="n">
-        <v>10.25</v>
+        <v>11.75</v>
       </c>
       <c r="AI46" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AJ46" t="n">
         <v>10</v>
@@ -8714,16 +8716,16 @@
         <v>35</v>
       </c>
       <c r="AL46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM46" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AN46" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="AO46" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP46" t="n">
         <v>19</v>
@@ -8735,35 +8737,35 @@
         <v>80</v>
       </c>
       <c r="AS46" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="AU46" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AV46" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW46" t="inlineStr"/>
       <c r="AX46" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AY46" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AZ46" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="BA46" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB46" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BC46" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD46" t="inlineStr"/>
     </row>
@@ -8805,16 +8807,16 @@
         <v>5.1</v>
       </c>
       <c r="I47" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="J47" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="K47" t="n">
         <v>2.47</v>
       </c>
       <c r="L47" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M47" t="n">
         <v>1.02</v>
@@ -8832,7 +8834,7 @@
         <v>1.57</v>
       </c>
       <c r="R47" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S47" t="n">
         <v>1.29</v>
@@ -8841,10 +8843,10 @@
         <v>3.28</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V47" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W47" t="n">
         <v>7.2</v>
@@ -8880,7 +8882,7 @@
         <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI47" t="n">
         <v>65</v>
@@ -8892,7 +8894,7 @@
         <v>250</v>
       </c>
       <c r="AL47" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM47" t="n">
         <v>100</v>
@@ -8904,29 +8906,29 @@
         <v>5.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ47" t="n">
         <v>14</v>
       </c>
       <c r="AR47" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS47" t="n">
         <v>250</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU47" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AV47" t="n">
         <v>90</v>
       </c>
       <c r="AW47" t="inlineStr"/>
       <c r="AX47" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AY47" t="n">
         <v>50</v>
@@ -11312,16 +11314,16 @@
         <v>1.8</v>
       </c>
       <c r="H61" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J61" t="n">
         <v>2.6</v>
       </c>
       <c r="K61" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L61" t="n">
         <v>5</v>
@@ -11330,7 +11332,7 @@
         <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O61" t="n">
         <v>1.44</v>
@@ -11357,10 +11359,10 @@
         <v>1.67</v>
       </c>
       <c r="W61" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y61" t="n">
         <v>9</v>
@@ -11375,13 +11377,13 @@
         <v>34</v>
       </c>
       <c r="AC61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD61" t="n">
         <v>6.5</v>
       </c>
       <c r="AE61" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF61" t="n">
         <v>67</v>
@@ -11399,22 +11401,22 @@
         <v>15</v>
       </c>
       <c r="AK61" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL61" t="n">
         <v>41</v>
       </c>
       <c r="AM61" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN61" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO61" t="n">
         <v>10</v>
       </c>
       <c r="AP61" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ61" t="n">
         <v>41</v>
@@ -11442,13 +11444,13 @@
         <v>26</v>
       </c>
       <c r="AZ61" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA61" t="n">
         <v>101</v>
       </c>
       <c r="BB61" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC61" t="n">
         <v>351</v>
@@ -11499,7 +11501,7 @@
         <v>3.4</v>
       </c>
       <c r="K62" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L62" t="n">
         <v>3.75</v>
@@ -11683,10 +11685,10 @@
         <v>3.75</v>
       </c>
       <c r="M63" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O63" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="K2" t="n">
         <v>2.6</v>
@@ -765,10 +765,10 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -801,10 +801,10 @@
         <v>9.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
@@ -813,19 +813,19 @@
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
@@ -834,7 +834,7 @@
         <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
@@ -867,7 +867,7 @@
         <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -876,7 +876,7 @@
         <v>401</v>
       </c>
       <c r="AX2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
@@ -885,10 +885,10 @@
         <v>29</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
@@ -1114,13 +1114,13 @@
         <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
         <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
@@ -1129,34 +1129,34 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1171,13 +1171,13 @@
         <v>19</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1189,13 +1189,13 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>13</v>
@@ -1204,7 +1204,7 @@
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
@@ -1228,13 +1228,13 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
         <v>126</v>
@@ -1313,16 +1313,16 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="R5" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="S5" t="n">
         <v>1.05</v>
@@ -1331,10 +1331,10 @@
         <v>7.8</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W5" t="n">
         <v>300</v>
@@ -1350,10 +1350,10 @@
         <v>600</v>
       </c>
       <c r="AB5" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AC5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD5" t="n">
         <v>37</v>
@@ -1362,22 +1362,22 @@
         <v>50</v>
       </c>
       <c r="AF5" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG5" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AJ5" t="n">
         <v>17.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AL5" t="n">
         <v>11.75</v>
@@ -1389,41 +1389,41 @@
         <v>40</v>
       </c>
       <c r="AO5" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AP5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AY5" t="n">
         <v>4.05</v>
       </c>
-      <c r="AY5" t="n">
-        <v>4</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BA5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="BB5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BC5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BD5" t="inlineStr"/>
     </row>
@@ -1659,16 +1659,16 @@
         <v>7.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
         <v>2.1</v>
@@ -1686,7 +1686,7 @@
         <v>2.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W7" t="n">
         <v>5.5</v>
@@ -1839,13 +1839,13 @@
         <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
         <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
         <v>2.5</v>
@@ -1866,7 +1866,7 @@
         <v>2.25</v>
       </c>
       <c r="V8" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
         <v>2.8</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
         <v>3.6</v>
@@ -2019,37 +2019,37 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P9" t="n">
         <v>2.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
         <v>11</v>
@@ -2073,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
         <v>101</v>
@@ -2082,7 +2082,7 @@
         <v>101</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -2106,7 +2106,7 @@
         <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ9" t="n">
         <v>67</v>
@@ -2118,13 +2118,13 @@
         <v>351</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
         <v>10</v>
       </c>
       <c r="AV9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="n">
@@ -2137,7 +2137,7 @@
         <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
         <v>126</v>
@@ -3085,16 +3085,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
         <v>2.3</v>
@@ -3103,10 +3103,10 @@
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
@@ -3133,7 +3133,7 @@
         <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X15" t="n">
         <v>7</v>
@@ -3151,7 +3151,7 @@
         <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
         <v>7.5</v>
@@ -3166,10 +3166,10 @@
         <v>351</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="n">
         <v>21</v>
@@ -3187,7 +3187,7 @@
         <v>3.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
@@ -3208,7 +3208,7 @@
         <v>9</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW15" t="n">
         <v>51</v>
@@ -3223,7 +3223,7 @@
         <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB15" t="n">
         <v>151</v>
@@ -3451,7 +3451,7 @@
         <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
@@ -3508,7 +3508,7 @@
         <v>17</v>
       </c>
       <c r="AB17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
         <v>10</v>
@@ -3535,7 +3535,7 @@
         <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
         <v>29</v>
@@ -3547,7 +3547,7 @@
         <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>21</v>
@@ -4163,7 +4163,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
@@ -4172,7 +4172,7 @@
         <v>3.75</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
@@ -5795,10 +5795,10 @@
         <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O30" t="n">
         <v>1.44</v>
@@ -5983,10 +5983,10 @@
         <v>13</v>
       </c>
       <c r="O31" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P31" t="n">
-        <v>4.9</v>
+        <v>5.98</v>
       </c>
       <c r="Q31" t="n">
         <v>1.53</v>
@@ -6001,10 +6001,10 @@
         <v>3.65</v>
       </c>
       <c r="U31" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="V31" t="n">
-        <v>2.81</v>
+        <v>2.71</v>
       </c>
       <c r="W31" t="n">
         <v>12.5</v>
@@ -11344,7 +11344,7 @@
         <v>2.35</v>
       </c>
       <c r="R61" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S61" t="n">
         <v>1.5</v>
@@ -11501,7 +11501,7 @@
         <v>3.4</v>
       </c>
       <c r="K62" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L62" t="n">
         <v>3.75</v>
@@ -11522,7 +11522,7 @@
         <v>2.4</v>
       </c>
       <c r="R62" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S62" t="n">
         <v>1.53</v>
@@ -11667,28 +11667,28 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H63" t="n">
         <v>3.3</v>
       </c>
       <c r="I63" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J63" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K63" t="n">
         <v>2.05</v>
       </c>
       <c r="L63" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M63" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O63" t="n">
         <v>1.36</v>
@@ -11700,7 +11700,7 @@
         <v>2.1</v>
       </c>
       <c r="R63" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S63" t="n">
         <v>1.44</v>
@@ -11721,10 +11721,10 @@
         <v>11</v>
       </c>
       <c r="Y63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z63" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA63" t="n">
         <v>21</v>
@@ -11739,7 +11739,7 @@
         <v>6.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF63" t="n">
         <v>51</v>
@@ -11748,34 +11748,34 @@
         <v>301</v>
       </c>
       <c r="AH63" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ63" t="n">
         <v>11</v>
       </c>
       <c r="AK63" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL63" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM63" t="n">
         <v>34</v>
       </c>
       <c r="AN63" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ63" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR63" t="n">
         <v>67</v>
@@ -11794,13 +11794,13 @@
       </c>
       <c r="AW63" t="inlineStr"/>
       <c r="AX63" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY63" t="n">
         <v>17</v>
       </c>
       <c r="AZ63" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA63" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
@@ -1319,10 +1319,10 @@
         <v>15</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="R5" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.05</v>
@@ -1331,10 +1331,10 @@
         <v>7.8</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
         <v>300</v>
@@ -1489,16 +1489,16 @@
         <v>2.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
         <v>2.5</v>
@@ -1525,7 +1525,7 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1540,7 +1540,7 @@
         <v>501</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI6" t="n">
         <v>17</v>
@@ -1576,7 +1576,7 @@
         <v>401</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>10</v>
@@ -1591,7 +1591,7 @@
         <v>5.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
         <v>41</v>
@@ -1686,7 +1686,7 @@
         <v>2.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W7" t="n">
         <v>5.5</v>
@@ -1765,7 +1765,7 @@
         <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
@@ -1833,16 +1833,16 @@
         <v>2.75</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L8" t="n">
         <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1866,7 +1866,7 @@
         <v>2.25</v>
       </c>
       <c r="V8" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
@@ -2013,16 +2013,16 @@
         <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.67</v>
@@ -2046,7 +2046,7 @@
         <v>2.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
         <v>5.5</v>
@@ -3085,7 +3085,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H15" t="n">
         <v>4.1</v>
@@ -8801,22 +8801,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H47" t="n">
         <v>5.1</v>
       </c>
       <c r="I47" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="J47" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="K47" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="L47" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M47" t="n">
         <v>1.02</v>
@@ -8831,28 +8831,28 @@
         <v>3.75</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R47" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S47" t="n">
         <v>1.29</v>
       </c>
       <c r="T47" t="n">
-        <v>3.28</v>
+        <v>3.32</v>
       </c>
       <c r="U47" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V47" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W47" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="X47" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y47" t="n">
         <v>9</v>
@@ -8861,13 +8861,13 @@
         <v>7.6</v>
       </c>
       <c r="AA47" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB47" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC47" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD47" t="n">
         <v>10.5</v>
@@ -8876,16 +8876,16 @@
         <v>24</v>
       </c>
       <c r="AF47" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH47" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI47" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ47" t="n">
         <v>29</v>
@@ -8894,7 +8894,7 @@
         <v>250</v>
       </c>
       <c r="AL47" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM47" t="n">
         <v>100</v>
@@ -8906,32 +8906,32 @@
         <v>5.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ47" t="n">
         <v>14</v>
       </c>
       <c r="AR47" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS47" t="n">
         <v>250</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU47" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AV47" t="n">
         <v>90</v>
       </c>
       <c r="AW47" t="inlineStr"/>
       <c r="AX47" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AY47" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AZ47" t="n">
         <v>50</v>
@@ -11344,7 +11344,7 @@
         <v>2.35</v>
       </c>
       <c r="R61" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S61" t="n">
         <v>1.5</v>
@@ -11522,7 +11522,7 @@
         <v>2.4</v>
       </c>
       <c r="R62" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S62" t="n">
         <v>1.53</v>
@@ -11700,7 +11700,7 @@
         <v>2.1</v>
       </c>
       <c r="R63" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S63" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
@@ -1459,28 +1459,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
         <v>1.67</v>
@@ -1540,7 +1540,7 @@
         <v>501</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
         <v>17</v>
@@ -1591,13 +1591,13 @@
         <v>5.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
         <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
         <v>151</v>
@@ -1671,10 +1671,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1765,7 +1765,7 @@
         <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
@@ -1833,7 +1833,7 @@
         <v>2.75</v>
       </c>
       <c r="K8" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
         <v>5.5</v>
@@ -1851,10 +1851,10 @@
         <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
         <v>1.57</v>
@@ -2013,7 +2013,7 @@
         <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
@@ -3481,7 +3481,7 @@
         <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T17" t="n">
         <v>2.75</v>
@@ -8801,22 +8801,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H47" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I47" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="J47" t="n">
         <v>1.7</v>
       </c>
       <c r="K47" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="L47" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="M47" t="n">
         <v>1.02</v>
@@ -8831,19 +8831,19 @@
         <v>3.75</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R47" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="S47" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T47" t="n">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
       <c r="U47" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
         <v>1.65</v>
@@ -8858,7 +8858,7 @@
         <v>9</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA47" t="n">
         <v>10.75</v>
@@ -8870,7 +8870,7 @@
         <v>14</v>
       </c>
       <c r="AD47" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AE47" t="n">
         <v>24</v>
@@ -8882,16 +8882,16 @@
         <v>900</v>
       </c>
       <c r="AH47" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI47" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ47" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AK47" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL47" t="n">
         <v>120</v>
@@ -8903,13 +8903,13 @@
         <v>3.05</v>
       </c>
       <c r="AO47" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AP47" t="n">
         <v>16</v>
       </c>
       <c r="AQ47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AR47" t="n">
         <v>40</v>
@@ -8918,7 +8918,7 @@
         <v>250</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU47" t="n">
         <v>9</v>
@@ -8928,19 +8928,19 @@
       </c>
       <c r="AW47" t="inlineStr"/>
       <c r="AX47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY47" t="n">
+        <v>60</v>
+      </c>
+      <c r="AZ47" t="n">
         <v>55</v>
       </c>
-      <c r="AZ47" t="n">
-        <v>50</v>
-      </c>
       <c r="BA47" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BB47" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC47" t="n">
         <v>500</v>
@@ -11489,13 +11489,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H62" t="n">
         <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J62" t="n">
         <v>3.4</v>
@@ -11504,7 +11504,7 @@
         <v>1.95</v>
       </c>
       <c r="L62" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M62" t="n">
         <v>1.1</v>
@@ -11531,22 +11531,22 @@
         <v>2.38</v>
       </c>
       <c r="U62" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V62" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X62" t="n">
         <v>11</v>
       </c>
       <c r="Y62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z62" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA62" t="n">
         <v>23</v>
@@ -11576,19 +11576,19 @@
         <v>13</v>
       </c>
       <c r="AJ62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK62" t="n">
         <v>29</v>
       </c>
       <c r="AL62" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM62" t="n">
         <v>41</v>
       </c>
       <c r="AN62" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO62" t="n">
         <v>15</v>
@@ -11619,19 +11619,19 @@
         <v>4.75</v>
       </c>
       <c r="AY62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ62" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA62" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB62" t="n">
         <v>101</v>
       </c>
       <c r="BC62" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD62" t="inlineStr"/>
     </row>
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H63" t="n">
         <v>3.3</v>
@@ -11676,7 +11676,7 @@
         <v>2.75</v>
       </c>
       <c r="J63" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K63" t="n">
         <v>2.05</v>
@@ -11685,22 +11685,22 @@
         <v>3.6</v>
       </c>
       <c r="M63" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N63" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O63" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P63" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R63" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S63" t="n">
         <v>1.44</v>
@@ -11721,7 +11721,7 @@
         <v>11</v>
       </c>
       <c r="Y63" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z63" t="n">
         <v>23</v>
@@ -11730,10 +11730,10 @@
         <v>21</v>
       </c>
       <c r="AB63" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC63" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD63" t="n">
         <v>6.5</v>
@@ -11748,7 +11748,7 @@
         <v>301</v>
       </c>
       <c r="AH63" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI63" t="n">
         <v>13</v>
@@ -11766,16 +11766,16 @@
         <v>34</v>
       </c>
       <c r="AN63" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP63" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ63" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR63" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H6" t="n">
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
@@ -1507,16 +1507,16 @@
         <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
         <v>26</v>
@@ -1531,7 +1531,7 @@
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>101</v>
@@ -1543,7 +1543,7 @@
         <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
@@ -1588,7 +1588,7 @@
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
         <v>23</v>
@@ -1671,10 +1671,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H9" t="n">
         <v>2.8</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>3.6</v>
@@ -2019,10 +2019,10 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>1.67</v>
@@ -2058,7 +2058,7 @@
         <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
         <v>29</v>
@@ -2073,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>101</v>
@@ -2103,7 +2103,7 @@
         <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
         <v>41</v>
@@ -2137,7 +2137,7 @@
         <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
         <v>126</v>
@@ -3475,13 +3475,13 @@
         <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T17" t="n">
         <v>2.75</v>
@@ -8623,22 +8623,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="H46" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I46" t="n">
         <v>2.8</v>
       </c>
       <c r="J46" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="K46" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L46" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="M46" t="n">
         <v>1.01</v>
@@ -8647,10 +8647,10 @@
         <v>11.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P46" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q46" t="n">
         <v>1.62</v>
@@ -8671,31 +8671,31 @@
         <v>2.22</v>
       </c>
       <c r="W46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X46" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y46" t="n">
         <v>9</v>
       </c>
       <c r="Z46" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA46" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC46" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD46" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AE46" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF46" t="n">
         <v>40</v>
@@ -8704,13 +8704,13 @@
         <v>250</v>
       </c>
       <c r="AH46" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ46" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK46" t="n">
         <v>35</v>
@@ -8719,53 +8719,53 @@
         <v>21</v>
       </c>
       <c r="AM46" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN46" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AO46" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AP46" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR46" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS46" t="n">
         <v>200</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="AU46" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV46" t="n">
         <v>50</v>
       </c>
       <c r="AW46" t="inlineStr"/>
       <c r="AX46" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AY46" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AZ46" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BA46" t="n">
         <v>65</v>
       </c>
       <c r="BB46" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BC46" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD46" t="inlineStr"/>
     </row>
@@ -8822,7 +8822,7 @@
         <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="O47" t="n">
         <v>1.19</v>
@@ -11311,19 +11311,19 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H61" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I61" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L61" t="n">
         <v>5</v>
@@ -11335,16 +11335,16 @@
         <v>7.5</v>
       </c>
       <c r="O61" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P61" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R61" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S61" t="n">
         <v>1.5</v>
@@ -11380,7 +11380,7 @@
         <v>7.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE61" t="n">
         <v>21</v>
@@ -11392,7 +11392,7 @@
         <v>351</v>
       </c>
       <c r="AH61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI61" t="n">
         <v>21</v>
@@ -11416,10 +11416,10 @@
         <v>10</v>
       </c>
       <c r="AP61" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ61" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR61" t="n">
         <v>67</v>
@@ -11489,22 +11489,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H62" t="n">
         <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J62" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K62" t="n">
         <v>1.95</v>
       </c>
       <c r="L62" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M62" t="n">
         <v>1.1</v>
@@ -11531,22 +11531,22 @@
         <v>2.38</v>
       </c>
       <c r="U62" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V62" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA62" t="n">
         <v>23</v>
@@ -11576,19 +11576,19 @@
         <v>13</v>
       </c>
       <c r="AJ62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK62" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL62" t="n">
         <v>29</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>26</v>
       </c>
       <c r="AM62" t="n">
         <v>41</v>
       </c>
       <c r="AN62" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO62" t="n">
         <v>15</v>
@@ -11616,22 +11616,22 @@
       </c>
       <c r="AW62" t="inlineStr"/>
       <c r="AX62" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA62" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB62" t="n">
         <v>101</v>
       </c>
       <c r="BC62" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD62" t="inlineStr"/>
     </row>
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H63" t="n">
         <v>3.3</v>
@@ -11676,7 +11676,7 @@
         <v>2.75</v>
       </c>
       <c r="J63" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K63" t="n">
         <v>2.05</v>
@@ -11685,22 +11685,22 @@
         <v>3.6</v>
       </c>
       <c r="M63" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O63" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P63" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R63" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S63" t="n">
         <v>1.44</v>
@@ -11721,7 +11721,7 @@
         <v>11</v>
       </c>
       <c r="Y63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z63" t="n">
         <v>23</v>
@@ -11730,16 +11730,16 @@
         <v>21</v>
       </c>
       <c r="AB63" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC63" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD63" t="n">
         <v>6.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF63" t="n">
         <v>51</v>
@@ -11748,7 +11748,7 @@
         <v>301</v>
       </c>
       <c r="AH63" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI63" t="n">
         <v>13</v>
@@ -11766,16 +11766,16 @@
         <v>34</v>
       </c>
       <c r="AN63" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ63" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR63" t="n">
         <v>67</v>
@@ -11800,7 +11800,7 @@
         <v>17</v>
       </c>
       <c r="AZ63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA63" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
@@ -1331,10 +1331,10 @@
         <v>7.8</v>
       </c>
       <c r="U5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.93</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.83</v>
       </c>
       <c r="W5" t="n">
         <v>300</v>
@@ -1350,7 +1350,7 @@
         <v>600</v>
       </c>
       <c r="AB5" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AC5" t="n">
         <v>50</v>
@@ -1368,16 +1368,16 @@
         <v>500</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>17.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AL5" t="n">
         <v>11.75</v>
@@ -1398,17 +1398,17 @@
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AU5" t="n">
         <v>12.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="AY5" t="n">
         <v>4.05</v>
@@ -1420,10 +1420,10 @@
         <v>5.8</v>
       </c>
       <c r="BB5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BC5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BD5" t="inlineStr"/>
     </row>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
@@ -1477,10 +1477,10 @@
         <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.67</v>
@@ -1495,28 +1495,28 @@
         <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
         <v>26</v>
@@ -1543,7 +1543,7 @@
         <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
@@ -1576,7 +1576,7 @@
         <v>401</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU6" t="n">
         <v>10</v>
@@ -1588,7 +1588,7 @@
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY6" t="n">
         <v>23</v>
@@ -1671,10 +1671,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1765,7 +1765,7 @@
         <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
@@ -1845,16 +1845,16 @@
         <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
         <v>1.57</v>
@@ -3085,13 +3085,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H15" t="n">
         <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
@@ -3103,10 +3103,10 @@
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
@@ -3115,10 +3115,10 @@
         <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
         <v>1.36</v>
@@ -3133,7 +3133,7 @@
         <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
         <v>7</v>
@@ -3145,31 +3145,31 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
         <v>21</v>
@@ -3187,7 +3187,7 @@
         <v>3.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
@@ -3208,7 +3208,7 @@
         <v>9</v>
       </c>
       <c r="AV15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="n">
         <v>51</v>
@@ -3223,7 +3223,7 @@
         <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB15" t="n">
         <v>151</v>
@@ -3445,40 +3445,40 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="n">
         <v>1.95</v>
       </c>
       <c r="R17" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3538,13 +3538,13 @@
         <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM17" t="n">
         <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>
@@ -3572,16 +3572,16 @@
       </c>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY17" t="n">
         <v>19</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB17" t="n">
         <v>81</v>
@@ -8623,34 +8623,34 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H46" t="n">
         <v>3.45</v>
       </c>
       <c r="I46" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="J46" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="K46" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L46" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N46" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="O46" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P46" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q46" t="n">
         <v>1.62</v>
@@ -8665,28 +8665,28 @@
         <v>2.55</v>
       </c>
       <c r="U46" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V46" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W46" t="n">
         <v>10</v>
       </c>
       <c r="X46" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y46" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z46" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA46" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC46" t="n">
         <v>13</v>
@@ -8695,43 +8695,43 @@
         <v>6.9</v>
       </c>
       <c r="AE46" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF46" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG46" t="n">
         <v>250</v>
       </c>
       <c r="AH46" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AI46" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ46" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK46" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM46" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN46" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AO46" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AP46" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ46" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR46" t="n">
         <v>75</v>
@@ -8750,22 +8750,22 @@
       </c>
       <c r="AW46" t="inlineStr"/>
       <c r="AX46" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="AY46" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ46" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BA46" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB46" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BC46" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD46" t="inlineStr"/>
     </row>
@@ -11332,19 +11332,19 @@
         <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O61" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P61" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R61" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S61" t="n">
         <v>1.5</v>
@@ -11519,10 +11519,10 @@
         <v>2.63</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R62" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S62" t="n">
         <v>1.53</v>
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H63" t="n">
         <v>3.3</v>
@@ -11685,10 +11685,10 @@
         <v>3.6</v>
       </c>
       <c r="M63" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O63" t="n">
         <v>1.36</v>
@@ -11697,10 +11697,10 @@
         <v>3</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R63" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S63" t="n">
         <v>1.44</v>
@@ -11766,10 +11766,10 @@
         <v>34</v>
       </c>
       <c r="AN63" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP63" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="I5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J5" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="L5" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1325,105 +1325,111 @@
         <v>7.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="T5" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="V5" t="n">
-        <v>1.93</v>
+        <v>2.11</v>
       </c>
       <c r="W5" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X5" t="n">
         <v>600</v>
       </c>
       <c r="Y5" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AB5" t="n">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="AC5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="n">
+        <v>500</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV5" t="n">
         <v>50</v>
       </c>
-      <c r="AD5" t="n">
-        <v>37</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG5" t="n">
+      <c r="AW5" t="n">
         <v>500</v>
       </c>
-      <c r="AH5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>300</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="AY5" t="n">
-        <v>4.05</v>
+        <v>4.3</v>
       </c>
       <c r="AZ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="BB5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="BC5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="BD5" t="inlineStr"/>
     </row>
@@ -1489,10 +1495,10 @@
         <v>2.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
         <v>1.67</v>
@@ -1824,19 +1830,19 @@
         <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
         <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1857,25 +1863,25 @@
         <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
         <v>15</v>
@@ -1887,7 +1893,7 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1906,7 +1912,7 @@
         <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>51</v>
@@ -1918,13 +1924,13 @@
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1933,10 +1939,10 @@
         <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU8" t="n">
         <v>9.5</v>
@@ -1951,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>41</v>
@@ -1963,10 +1969,10 @@
         <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -3085,19 +3091,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H15" t="n">
         <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
         <v>6.5</v>
@@ -3157,13 +3163,13 @@
         <v>8</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH15" t="n">
         <v>17</v>
@@ -3187,7 +3193,7 @@
         <v>3.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="I5" t="n">
         <v>1.04</v>
       </c>
       <c r="J5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="K5" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1316,7 +1316,7 @@
         <v>1.02</v>
       </c>
       <c r="P5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q5" t="n">
         <v>1.07</v>
@@ -1325,29 +1325,29 @@
         <v>7.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="U5" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="V5" t="n">
-        <v>2.11</v>
+        <v>2.26</v>
       </c>
       <c r="W5" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="X5" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Y5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AB5" t="n">
         <v>175</v>
@@ -1359,77 +1359,77 @@
         <v>35</v>
       </c>
       <c r="AE5" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG5" t="n">
         <v>300</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK5" t="n">
         <v>9</v>
       </c>
       <c r="AL5" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AM5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AP5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="n">
         <v>500</v>
       </c>
       <c r="AS5" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT5" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW5" t="n">
         <v>500</v>
       </c>
       <c r="AX5" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="AY5" t="n">
         <v>4.3</v>
       </c>
       <c r="AZ5" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="BA5" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="BB5" t="n">
         <v>16</v>
       </c>
       <c r="BC5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BD5" t="inlineStr"/>
     </row>
@@ -1827,13 +1827,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
         <v>2.63</v>
@@ -1845,10 +1845,10 @@
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1878,7 +1878,7 @@
         <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
@@ -1972,7 +1972,7 @@
         <v>401</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -2010,10 +2010,10 @@
         <v>2.63</v>
       </c>
       <c r="H9" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
         <v>3.6</v>
@@ -2043,10 +2043,10 @@
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T9" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U9" t="n">
         <v>2.5</v>
@@ -2079,7 +2079,7 @@
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
         <v>101</v>
@@ -2127,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV9" t="n">
         <v>101</v>
@@ -2143,10 +2143,10 @@
         <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
         <v>351</v>
@@ -3109,10 +3109,10 @@
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
@@ -1647,28 +1647,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
         <v>7.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1704,7 +1704,7 @@
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
@@ -1713,10 +1713,10 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1726,13 +1726,13 @@
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
         <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
         <v>81</v>
@@ -1744,7 +1744,7 @@
         <v>67</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO7" t="n">
         <v>7.5</v>
@@ -1753,7 +1753,7 @@
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1783,7 +1783,7 @@
         <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
         <v>201</v>
@@ -1827,16 +1827,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
         <v>1.95</v>
@@ -1869,22 +1869,22 @@
         <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
         <v>19</v>
@@ -1899,14 +1899,14 @@
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>81</v>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
@@ -1972,7 +1972,7 @@
         <v>401</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -2013,10 +2013,10 @@
         <v>2.75</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>1.8</v>
@@ -3091,13 +3091,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H15" t="n">
         <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
@@ -3109,16 +3109,16 @@
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
         <v>1.8</v>
@@ -3169,10 +3169,10 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
         <v>34</v>
@@ -3460,7 +3460,7 @@
         <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
@@ -1665,10 +1665,10 @@
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1677,10 +1677,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1692,7 +1692,7 @@
         <v>2.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W7" t="n">
         <v>5.5</v>
@@ -1845,10 +1845,10 @@
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1857,10 +1857,10 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
         <v>1.53</v>
@@ -1872,7 +1872,7 @@
         <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
@@ -1972,7 +1972,7 @@
         <v>401</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -2013,10 +2013,10 @@
         <v>2.75</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>1.8</v>
@@ -2052,7 +2052,7 @@
         <v>2.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W9" t="n">
         <v>5.5</v>
@@ -3097,7 +3097,7 @@
         <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
@@ -3115,10 +3115,10 @@
         <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="n">
         <v>1.8</v>
@@ -3133,13 +3133,13 @@
         <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V15" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X15" t="n">
         <v>7</v>
@@ -3160,10 +3160,10 @@
         <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>51</v>
@@ -3175,10 +3175,10 @@
         <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK15" t="n">
         <v>81</v>
@@ -3451,16 +3451,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
@@ -3499,16 +3499,16 @@
         <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
         <v>17</v>
@@ -3535,10 +3535,10 @@
         <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
         <v>34</v>
@@ -3581,7 +3581,7 @@
         <v>5</v>
       </c>
       <c r="AY17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ17" t="n">
         <v>26</v>
@@ -8828,7 +8828,7 @@
         <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>13.3</v>
+        <v>13.8</v>
       </c>
       <c r="O47" t="n">
         <v>1.19</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
@@ -1647,28 +1647,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1677,10 +1677,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1689,71 +1689,71 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
         <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM7" t="n">
         <v>67</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1765,28 +1765,28 @@
         <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>501</v>
@@ -1827,16 +1827,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
         <v>1.95</v>
@@ -1857,7 +1857,7 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
         <v>1.5</v>
@@ -1869,22 +1869,22 @@
         <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
         <v>19</v>
@@ -1899,7 +1899,7 @@
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>81</v>
@@ -1924,7 +1924,7 @@
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
@@ -1957,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>41</v>
@@ -2007,28 +2007,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="H9" t="n">
         <v>2.75</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.67</v>
@@ -2037,22 +2037,22 @@
         <v>2.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
         <v>2.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
         <v>5.5</v>
@@ -2079,7 +2079,7 @@
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>101</v>
@@ -2127,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV9" t="n">
         <v>101</v>
@@ -2143,10 +2143,10 @@
         <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
         <v>351</v>
@@ -3091,34 +3091,34 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
         <v>1.8</v>
@@ -3133,13 +3133,13 @@
         <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
         <v>7</v>
@@ -3172,16 +3172,16 @@
         <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL15" t="n">
         <v>51</v>
@@ -3193,7 +3193,7 @@
         <v>3.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
@@ -3205,7 +3205,7 @@
         <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT15" t="n">
         <v>3</v>
@@ -3220,7 +3220,7 @@
         <v>51</v>
       </c>
       <c r="AX15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY15" t="n">
         <v>34</v>
@@ -3235,7 +3235,7 @@
         <v>151</v>
       </c>
       <c r="BC15" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD15" t="n">
         <v>51</v>
@@ -3475,16 +3475,16 @@
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3493,10 +3493,10 @@
         <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
         <v>8</v>
@@ -3514,7 +3514,7 @@
         <v>17</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
         <v>10</v>
@@ -3529,7 +3529,7 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="n">
         <v>10</v>
@@ -3593,7 +3593,7 @@
         <v>81</v>
       </c>
       <c r="BC17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD17" t="inlineStr"/>
     </row>
@@ -8828,7 +8828,7 @@
         <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>13.8</v>
+        <v>13</v>
       </c>
       <c r="O47" t="n">
         <v>1.19</v>
@@ -8846,7 +8846,7 @@
         <v>1.28</v>
       </c>
       <c r="T47" t="n">
-        <v>3.34</v>
+        <v>3.54</v>
       </c>
       <c r="U47" t="n">
         <v>2</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H7" t="n">
         <v>4.33</v>
@@ -1680,7 +1680,7 @@
         <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
@@ -1845,10 +1845,10 @@
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1860,7 +1860,7 @@
         <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
@@ -3460,7 +3460,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
@@ -3469,10 +3469,10 @@
         <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
         <v>1.3</v>
@@ -3493,10 +3493,10 @@
         <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W17" t="n">
         <v>8</v>
@@ -3514,7 +3514,7 @@
         <v>17</v>
       </c>
       <c r="AB17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
         <v>10</v>
@@ -3529,7 +3529,7 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH17" t="n">
         <v>10</v>
@@ -3593,7 +3593,7 @@
         <v>81</v>
       </c>
       <c r="BC17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD17" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
@@ -3451,16 +3451,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
         <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
@@ -3481,10 +3481,10 @@
         <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3505,13 +3505,13 @@
         <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z17" t="n">
         <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="n">
         <v>29</v>
@@ -3532,7 +3532,7 @@
         <v>251</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
@@ -3553,16 +3553,16 @@
         <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS17" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-25.xlsx
@@ -3493,10 +3493,10 @@
         <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
         <v>8</v>
